--- a/analysis/9.분석결과.xlsx
+++ b/analysis/9.분석결과.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>month</t>
   </si>
@@ -83,6 +83,34 @@
   </si>
   <si>
     <t>여성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6월 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마더코드(개)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드(개)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -350,6 +378,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -368,15 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,6 +416,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,13 +723,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -706,58 +745,76 @@
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>34</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>6738</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>7455</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" thickBot="1">
       <c r="A5" s="1">
         <v>8167</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="I5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>9751</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="27">
+        <v>41</v>
+      </c>
+      <c r="J6" s="27">
+        <v>91</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickBot="1">
       <c r="A7" s="1">
         <v>10437</v>
       </c>
@@ -767,18 +824,36 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="27">
+        <v>184</v>
+      </c>
+      <c r="J7" s="27">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>10549</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="26">
+        <v>225</v>
+      </c>
+      <c r="J8" s="26">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>11364</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>12919</v>
       </c>
@@ -792,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>13281</v>
       </c>
@@ -805,8 +880,14 @@
       <c r="E11">
         <v>99000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="I11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>13799</v>
       </c>
@@ -819,8 +900,20 @@
       <c r="E12" s="9">
         <v>96000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="27">
+        <v>6</v>
+      </c>
+      <c r="J12" s="27">
+        <v>24</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>14054</v>
       </c>
@@ -833,8 +926,17 @@
       <c r="E13">
         <v>39900</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="27">
+        <v>411</v>
+      </c>
+      <c r="J13" s="27">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>14608</v>
       </c>
@@ -847,8 +949,17 @@
       <c r="E14" s="9">
         <v>39000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="26">
+        <v>417</v>
+      </c>
+      <c r="J14" s="26">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>16073</v>
       </c>
@@ -862,7 +973,7 @@
         <v>73900</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>16812</v>
       </c>
@@ -5292,81 +5403,11 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:A69"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="A70:A128"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B95:B114"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="A129:A165"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="A166:A207"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B201"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="A208:A256"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A257:A276"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B330"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="B290:B297"/>
-    <mergeCell ref="B298:B302"/>
-    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="B370:B376"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="B380:B382"/>
+    <mergeCell ref="B383:B386"/>
+    <mergeCell ref="B388:B389"/>
     <mergeCell ref="B331:B333"/>
     <mergeCell ref="B334:B338"/>
     <mergeCell ref="A339:A397"/>
@@ -5383,11 +5424,81 @@
     <mergeCell ref="B390:B393"/>
     <mergeCell ref="B396:B397"/>
     <mergeCell ref="B368:B369"/>
-    <mergeCell ref="B370:B376"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="B380:B382"/>
-    <mergeCell ref="B383:B386"/>
-    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="B284:B286"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="B290:B297"/>
+    <mergeCell ref="B298:B302"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="A257:A276"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="A208:A256"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A166:A207"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B201"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="A129:A165"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A70:A128"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B114"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A69"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
